--- a/documents/gkill_develop_document.xlsx
+++ b/documents/gkill_develop_document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Git\gkill\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E68E8E-1C63-4995-8AEF-C8D68AF12A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97246350-C57D-4311-AA3F-301A59B4E747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="299">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -3006,13 +3006,74 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>データのER図作成中です</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントについては要件詰める必要があります。</t>
+    <rPh sb="10" eb="12">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるいはそもそも作らないか</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データER図、アカウントER図（コンフィグとRep）作成完了しました</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データER図
+アカウントER図
+作成完了</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>サクセイカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -3199,7 +3260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3208,32 +3269,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3596,7 +3652,7 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4201,6 +4257,35 @@
     <row r="127" spans="2:4">
       <c r="C127" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="9">
+        <v>45487</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0.22291666666666668</v>
+      </c>
+      <c r="C129" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="C130" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="C131" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="B133" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C133" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4323,7 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="18">
-      <c r="A3" s="24"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="2" t="s">
         <v>164</v>
       </c>
@@ -4250,13 +4335,13 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="24"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="24"/>
+      <c r="A5" s="17"/>
       <c r="C5" t="s">
         <v>201</v>
       </c>
@@ -4268,7 +4353,7 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="24"/>
+      <c r="A6" s="17"/>
       <c r="C6" t="s">
         <v>202</v>
       </c>
@@ -4280,16 +4365,16 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="24"/>
+      <c r="A7" s="17"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="24"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="24"/>
+      <c r="A9" s="17"/>
       <c r="C9" t="s">
         <v>205</v>
       </c>
@@ -4301,7 +4386,7 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="24"/>
+      <c r="A10" s="17"/>
       <c r="C10" t="s">
         <v>206</v>
       </c>
@@ -4527,11 +4612,11 @@
   <dimension ref="A1:GC500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4547,7 +4632,8 @@
     <col min="11" max="11" width="15.625" style="8" customWidth="1"/>
     <col min="12" max="13" width="15.875" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="32" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="32" width="10.25" bestFit="1" customWidth="1"/>
     <col min="33" max="41" width="9.25" bestFit="1" customWidth="1"/>
     <col min="42" max="63" width="10.25" bestFit="1" customWidth="1"/>
     <col min="64" max="72" width="9.25" bestFit="1" customWidth="1"/>
@@ -4571,11 +4657,11 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:185" s="15" customFormat="1" ht="39.75">
+    <row r="2" spans="1:185" s="11" customFormat="1" ht="39.75">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C2"/>
@@ -4591,11 +4677,11 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:185" s="15" customFormat="1">
+    <row r="3" spans="1:185" s="11" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3"/>
@@ -4629,520 +4715,520 @@
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="12">
         <v>45486</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="12">
         <v>45487</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="12">
         <v>45488</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="12">
         <v>45489</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="12">
         <v>45490</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="12">
         <v>45491</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="12">
         <v>45492</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="12">
         <v>45493</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="12">
         <v>45494</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="12">
         <v>45495</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="12">
         <v>45496</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="12">
         <v>45497</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="12">
         <v>45498</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AA3" s="12">
         <v>45499</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="12">
         <v>45500</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AC3" s="12">
         <v>45501</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AD3" s="12">
         <v>45502</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AE3" s="12">
         <v>45503</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AF3" s="12">
         <v>45504</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AG3" s="12">
         <v>45505</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AH3" s="12">
         <v>45506</v>
       </c>
-      <c r="AI3" s="16">
+      <c r="AI3" s="12">
         <v>45507</v>
       </c>
-      <c r="AJ3" s="16">
+      <c r="AJ3" s="12">
         <v>45508</v>
       </c>
-      <c r="AK3" s="16">
+      <c r="AK3" s="12">
         <v>45509</v>
       </c>
-      <c r="AL3" s="16">
+      <c r="AL3" s="12">
         <v>45510</v>
       </c>
-      <c r="AM3" s="16">
+      <c r="AM3" s="12">
         <v>45511</v>
       </c>
-      <c r="AN3" s="16">
+      <c r="AN3" s="12">
         <v>45512</v>
       </c>
-      <c r="AO3" s="16">
+      <c r="AO3" s="12">
         <v>45513</v>
       </c>
-      <c r="AP3" s="16">
+      <c r="AP3" s="12">
         <v>45514</v>
       </c>
-      <c r="AQ3" s="16">
+      <c r="AQ3" s="12">
         <v>45515</v>
       </c>
-      <c r="AR3" s="16">
+      <c r="AR3" s="12">
         <v>45516</v>
       </c>
-      <c r="AS3" s="16">
+      <c r="AS3" s="12">
         <v>45517</v>
       </c>
-      <c r="AT3" s="16">
+      <c r="AT3" s="12">
         <v>45518</v>
       </c>
-      <c r="AU3" s="16">
+      <c r="AU3" s="12">
         <v>45519</v>
       </c>
-      <c r="AV3" s="16">
+      <c r="AV3" s="12">
         <v>45520</v>
       </c>
-      <c r="AW3" s="16">
+      <c r="AW3" s="12">
         <v>45521</v>
       </c>
-      <c r="AX3" s="16">
+      <c r="AX3" s="12">
         <v>45522</v>
       </c>
-      <c r="AY3" s="16">
+      <c r="AY3" s="12">
         <v>45523</v>
       </c>
-      <c r="AZ3" s="16">
+      <c r="AZ3" s="12">
         <v>45524</v>
       </c>
-      <c r="BA3" s="16">
+      <c r="BA3" s="12">
         <v>45525</v>
       </c>
-      <c r="BB3" s="16">
+      <c r="BB3" s="12">
         <v>45526</v>
       </c>
-      <c r="BC3" s="16">
+      <c r="BC3" s="12">
         <v>45527</v>
       </c>
-      <c r="BD3" s="16">
+      <c r="BD3" s="12">
         <v>45528</v>
       </c>
-      <c r="BE3" s="16">
+      <c r="BE3" s="12">
         <v>45529</v>
       </c>
-      <c r="BF3" s="16">
+      <c r="BF3" s="12">
         <v>45530</v>
       </c>
-      <c r="BG3" s="16">
+      <c r="BG3" s="12">
         <v>45531</v>
       </c>
-      <c r="BH3" s="16">
+      <c r="BH3" s="12">
         <v>45532</v>
       </c>
-      <c r="BI3" s="16">
+      <c r="BI3" s="12">
         <v>45533</v>
       </c>
-      <c r="BJ3" s="16">
+      <c r="BJ3" s="12">
         <v>45534</v>
       </c>
-      <c r="BK3" s="16">
+      <c r="BK3" s="12">
         <v>45535</v>
       </c>
-      <c r="BL3" s="16">
+      <c r="BL3" s="12">
         <v>45536</v>
       </c>
-      <c r="BM3" s="16">
+      <c r="BM3" s="12">
         <v>45537</v>
       </c>
-      <c r="BN3" s="16">
+      <c r="BN3" s="12">
         <v>45538</v>
       </c>
-      <c r="BO3" s="16">
+      <c r="BO3" s="12">
         <v>45539</v>
       </c>
-      <c r="BP3" s="16">
+      <c r="BP3" s="12">
         <v>45540</v>
       </c>
-      <c r="BQ3" s="16">
+      <c r="BQ3" s="12">
         <v>45541</v>
       </c>
-      <c r="BR3" s="16">
+      <c r="BR3" s="12">
         <v>45542</v>
       </c>
-      <c r="BS3" s="16">
+      <c r="BS3" s="12">
         <v>45543</v>
       </c>
-      <c r="BT3" s="16">
+      <c r="BT3" s="12">
         <v>45544</v>
       </c>
-      <c r="BU3" s="16">
+      <c r="BU3" s="12">
         <v>45545</v>
       </c>
-      <c r="BV3" s="16">
+      <c r="BV3" s="12">
         <v>45546</v>
       </c>
-      <c r="BW3" s="16">
+      <c r="BW3" s="12">
         <v>45547</v>
       </c>
-      <c r="BX3" s="16">
+      <c r="BX3" s="12">
         <v>45548</v>
       </c>
-      <c r="BY3" s="16">
+      <c r="BY3" s="12">
         <v>45549</v>
       </c>
-      <c r="BZ3" s="16">
+      <c r="BZ3" s="12">
         <v>45550</v>
       </c>
-      <c r="CA3" s="16">
+      <c r="CA3" s="12">
         <v>45551</v>
       </c>
-      <c r="CB3" s="16">
+      <c r="CB3" s="12">
         <v>45552</v>
       </c>
-      <c r="CC3" s="16">
+      <c r="CC3" s="12">
         <v>45553</v>
       </c>
-      <c r="CD3" s="16">
+      <c r="CD3" s="12">
         <v>45554</v>
       </c>
-      <c r="CE3" s="16">
+      <c r="CE3" s="12">
         <v>45555</v>
       </c>
-      <c r="CF3" s="16">
+      <c r="CF3" s="12">
         <v>45556</v>
       </c>
-      <c r="CG3" s="16">
+      <c r="CG3" s="12">
         <v>45557</v>
       </c>
-      <c r="CH3" s="16">
+      <c r="CH3" s="12">
         <v>45558</v>
       </c>
-      <c r="CI3" s="16">
+      <c r="CI3" s="12">
         <v>45559</v>
       </c>
-      <c r="CJ3" s="16">
+      <c r="CJ3" s="12">
         <v>45560</v>
       </c>
-      <c r="CK3" s="16">
+      <c r="CK3" s="12">
         <v>45561</v>
       </c>
-      <c r="CL3" s="16">
+      <c r="CL3" s="12">
         <v>45562</v>
       </c>
-      <c r="CM3" s="16">
+      <c r="CM3" s="12">
         <v>45563</v>
       </c>
-      <c r="CN3" s="16">
+      <c r="CN3" s="12">
         <v>45564</v>
       </c>
-      <c r="CO3" s="16">
+      <c r="CO3" s="12">
         <v>45565</v>
       </c>
-      <c r="CP3" s="16">
+      <c r="CP3" s="12">
         <v>45566</v>
       </c>
-      <c r="CQ3" s="16">
+      <c r="CQ3" s="12">
         <v>45567</v>
       </c>
-      <c r="CR3" s="16">
+      <c r="CR3" s="12">
         <v>45568</v>
       </c>
-      <c r="CS3" s="16">
+      <c r="CS3" s="12">
         <v>45569</v>
       </c>
-      <c r="CT3" s="16">
+      <c r="CT3" s="12">
         <v>45570</v>
       </c>
-      <c r="CU3" s="16">
+      <c r="CU3" s="12">
         <v>45571</v>
       </c>
-      <c r="CV3" s="16">
+      <c r="CV3" s="12">
         <v>45572</v>
       </c>
-      <c r="CW3" s="16">
+      <c r="CW3" s="12">
         <v>45573</v>
       </c>
-      <c r="CX3" s="16">
+      <c r="CX3" s="12">
         <v>45574</v>
       </c>
-      <c r="CY3" s="16">
+      <c r="CY3" s="12">
         <v>45575</v>
       </c>
-      <c r="CZ3" s="16">
+      <c r="CZ3" s="12">
         <v>45576</v>
       </c>
-      <c r="DA3" s="16">
+      <c r="DA3" s="12">
         <v>45577</v>
       </c>
-      <c r="DB3" s="16">
+      <c r="DB3" s="12">
         <v>45578</v>
       </c>
-      <c r="DC3" s="16">
+      <c r="DC3" s="12">
         <v>45579</v>
       </c>
-      <c r="DD3" s="16">
+      <c r="DD3" s="12">
         <v>45580</v>
       </c>
-      <c r="DE3" s="16">
+      <c r="DE3" s="12">
         <v>45581</v>
       </c>
-      <c r="DF3" s="16">
+      <c r="DF3" s="12">
         <v>45582</v>
       </c>
-      <c r="DG3" s="16">
+      <c r="DG3" s="12">
         <v>45583</v>
       </c>
-      <c r="DH3" s="16">
+      <c r="DH3" s="12">
         <v>45584</v>
       </c>
-      <c r="DI3" s="16">
+      <c r="DI3" s="12">
         <v>45585</v>
       </c>
-      <c r="DJ3" s="16">
+      <c r="DJ3" s="12">
         <v>45586</v>
       </c>
-      <c r="DK3" s="16">
+      <c r="DK3" s="12">
         <v>45587</v>
       </c>
-      <c r="DL3" s="16">
+      <c r="DL3" s="12">
         <v>45588</v>
       </c>
-      <c r="DM3" s="16">
+      <c r="DM3" s="12">
         <v>45589</v>
       </c>
-      <c r="DN3" s="16">
+      <c r="DN3" s="12">
         <v>45590</v>
       </c>
-      <c r="DO3" s="16">
+      <c r="DO3" s="12">
         <v>45591</v>
       </c>
-      <c r="DP3" s="16">
+      <c r="DP3" s="12">
         <v>45592</v>
       </c>
-      <c r="DQ3" s="16">
+      <c r="DQ3" s="12">
         <v>45593</v>
       </c>
-      <c r="DR3" s="16">
+      <c r="DR3" s="12">
         <v>45594</v>
       </c>
-      <c r="DS3" s="16">
+      <c r="DS3" s="12">
         <v>45595</v>
       </c>
-      <c r="DT3" s="16">
+      <c r="DT3" s="12">
         <v>45596</v>
       </c>
-      <c r="DU3" s="16">
+      <c r="DU3" s="12">
         <v>45597</v>
       </c>
-      <c r="DV3" s="16">
+      <c r="DV3" s="12">
         <v>45598</v>
       </c>
-      <c r="DW3" s="16">
+      <c r="DW3" s="12">
         <v>45599</v>
       </c>
-      <c r="DX3" s="16">
+      <c r="DX3" s="12">
         <v>45600</v>
       </c>
-      <c r="DY3" s="16">
+      <c r="DY3" s="12">
         <v>45601</v>
       </c>
-      <c r="DZ3" s="16">
+      <c r="DZ3" s="12">
         <v>45602</v>
       </c>
-      <c r="EA3" s="16">
+      <c r="EA3" s="12">
         <v>45603</v>
       </c>
-      <c r="EB3" s="16">
+      <c r="EB3" s="12">
         <v>45604</v>
       </c>
-      <c r="EC3" s="16">
+      <c r="EC3" s="12">
         <v>45605</v>
       </c>
-      <c r="ED3" s="16">
+      <c r="ED3" s="12">
         <v>45606</v>
       </c>
-      <c r="EE3" s="16">
+      <c r="EE3" s="12">
         <v>45607</v>
       </c>
-      <c r="EF3" s="16">
+      <c r="EF3" s="12">
         <v>45608</v>
       </c>
-      <c r="EG3" s="16">
+      <c r="EG3" s="12">
         <v>45609</v>
       </c>
-      <c r="EH3" s="16">
+      <c r="EH3" s="12">
         <v>45610</v>
       </c>
-      <c r="EI3" s="16">
+      <c r="EI3" s="12">
         <v>45611</v>
       </c>
-      <c r="EJ3" s="16">
+      <c r="EJ3" s="12">
         <v>45612</v>
       </c>
-      <c r="EK3" s="16">
+      <c r="EK3" s="12">
         <v>45613</v>
       </c>
-      <c r="EL3" s="16">
+      <c r="EL3" s="12">
         <v>45614</v>
       </c>
-      <c r="EM3" s="16">
+      <c r="EM3" s="12">
         <v>45615</v>
       </c>
-      <c r="EN3" s="16">
+      <c r="EN3" s="12">
         <v>45616</v>
       </c>
-      <c r="EO3" s="16">
+      <c r="EO3" s="12">
         <v>45617</v>
       </c>
-      <c r="EP3" s="16">
+      <c r="EP3" s="12">
         <v>45618</v>
       </c>
-      <c r="EQ3" s="16">
+      <c r="EQ3" s="12">
         <v>45619</v>
       </c>
-      <c r="ER3" s="16">
+      <c r="ER3" s="12">
         <v>45620</v>
       </c>
-      <c r="ES3" s="16">
+      <c r="ES3" s="12">
         <v>45621</v>
       </c>
-      <c r="ET3" s="16">
+      <c r="ET3" s="12">
         <v>45622</v>
       </c>
-      <c r="EU3" s="16">
+      <c r="EU3" s="12">
         <v>45623</v>
       </c>
-      <c r="EV3" s="16">
+      <c r="EV3" s="12">
         <v>45624</v>
       </c>
-      <c r="EW3" s="16">
+      <c r="EW3" s="12">
         <v>45625</v>
       </c>
-      <c r="EX3" s="16">
+      <c r="EX3" s="12">
         <v>45626</v>
       </c>
-      <c r="EY3" s="16">
+      <c r="EY3" s="12">
         <v>45627</v>
       </c>
-      <c r="EZ3" s="16">
+      <c r="EZ3" s="12">
         <v>45628</v>
       </c>
-      <c r="FA3" s="16">
+      <c r="FA3" s="12">
         <v>45629</v>
       </c>
-      <c r="FB3" s="16">
+      <c r="FB3" s="12">
         <v>45630</v>
       </c>
-      <c r="FC3" s="16">
+      <c r="FC3" s="12">
         <v>45631</v>
       </c>
-      <c r="FD3" s="16">
+      <c r="FD3" s="12">
         <v>45632</v>
       </c>
-      <c r="FE3" s="16">
+      <c r="FE3" s="12">
         <v>45633</v>
       </c>
-      <c r="FF3" s="16">
+      <c r="FF3" s="12">
         <v>45634</v>
       </c>
-      <c r="FG3" s="16">
+      <c r="FG3" s="12">
         <v>45635</v>
       </c>
-      <c r="FH3" s="16">
+      <c r="FH3" s="12">
         <v>45636</v>
       </c>
-      <c r="FI3" s="16">
+      <c r="FI3" s="12">
         <v>45637</v>
       </c>
-      <c r="FJ3" s="16">
+      <c r="FJ3" s="12">
         <v>45638</v>
       </c>
-      <c r="FK3" s="16">
+      <c r="FK3" s="12">
         <v>45639</v>
       </c>
-      <c r="FL3" s="16">
+      <c r="FL3" s="12">
         <v>45640</v>
       </c>
-      <c r="FM3" s="16">
+      <c r="FM3" s="12">
         <v>45641</v>
       </c>
-      <c r="FN3" s="16">
+      <c r="FN3" s="12">
         <v>45642</v>
       </c>
-      <c r="FO3" s="16">
+      <c r="FO3" s="12">
         <v>45643</v>
       </c>
-      <c r="FP3" s="16">
+      <c r="FP3" s="12">
         <v>45644</v>
       </c>
-      <c r="FQ3" s="16">
+      <c r="FQ3" s="12">
         <v>45645</v>
       </c>
-      <c r="FR3" s="16">
+      <c r="FR3" s="12">
         <v>45646</v>
       </c>
-      <c r="FS3" s="16">
+      <c r="FS3" s="12">
         <v>45647</v>
       </c>
-      <c r="FT3" s="16">
+      <c r="FT3" s="12">
         <v>45648</v>
       </c>
-      <c r="FU3" s="16">
+      <c r="FU3" s="12">
         <v>45649</v>
       </c>
-      <c r="FV3" s="16">
+      <c r="FV3" s="12">
         <v>45650</v>
       </c>
-      <c r="FW3" s="16">
+      <c r="FW3" s="12">
         <v>45651</v>
       </c>
-      <c r="FX3" s="16">
+      <c r="FX3" s="12">
         <v>45652</v>
       </c>
-      <c r="FY3" s="16">
+      <c r="FY3" s="12">
         <v>45653</v>
       </c>
-      <c r="FZ3" s="16">
+      <c r="FZ3" s="12">
         <v>45654</v>
       </c>
-      <c r="GA3" s="16">
+      <c r="GA3" s="12">
         <v>45655</v>
       </c>
-      <c r="GB3" s="16">
+      <c r="GB3" s="12">
         <v>45656</v>
       </c>
-      <c r="GC3" s="16">
+      <c r="GC3" s="12">
         <v>45657</v>
       </c>
     </row>
@@ -5183,7 +5269,7 @@
       <c r="M4" s="8">
         <v>45486.615972222222</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="22" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5228,11 +5314,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:185" ht="37.5" hidden="1">
+    <row r="6" spans="1:185" hidden="1">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="7">
@@ -5269,11 +5355,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:185" ht="37.5">
+    <row r="7" spans="1:185" ht="56.25" hidden="1">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12"/>
       <c r="D7" s="7">
         <v>6</v>
       </c>
@@ -5289,11 +5374,23 @@
       <c r="H7" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="I7" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J7" s="7">
         <v>2</v>
       </c>
       <c r="K7" s="8">
         <v>45486.524305555555</v>
+      </c>
+      <c r="L7" s="8">
+        <v>45487.5</v>
+      </c>
+      <c r="M7" s="8">
+        <v>45487.286111111112</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:185" ht="37.5">
@@ -5322,7 +5419,7 @@
         <v>45486.524305555555</v>
       </c>
     </row>
-    <row r="9" spans="1:185">
+    <row r="9" spans="1:185" ht="37.5">
       <c r="D9" s="7">
         <v>11</v>
       </c>
@@ -5377,7 +5474,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:185" ht="37.5">
+    <row r="11" spans="1:185">
       <c r="D11" s="7">
         <v>9</v>
       </c>
@@ -10438,7 +10535,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B366C3B-CB5B-492E-B0CF-6CDEE8FB2C0A}">
-  <dimension ref="A2:AK151"/>
+  <dimension ref="A2:AJ151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10498,7 +10595,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10601,7 +10698,7 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10847,7 +10944,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="2:37">
+    <row r="81" spans="2:36">
       <c r="B81" s="1" t="s">
         <v>77</v>
       </c>
@@ -10855,183 +10952,183 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="2:37">
+    <row r="82" spans="2:36">
       <c r="C82" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="2:37">
+    <row r="83" spans="2:36">
       <c r="C83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="2:37">
+    <row r="84" spans="2:36">
       <c r="C84" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="2:37">
+    <row r="85" spans="2:36">
       <c r="C85" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="2:37">
+    <row r="87" spans="2:36">
       <c r="B87" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="2:37">
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
+    <row r="88" spans="2:36">
+      <c r="C88" s="23"/>
+      <c r="D88" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19" t="s">
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19" t="s">
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19" t="s">
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19" t="s">
+      <c r="Q88" s="23"/>
+      <c r="R88" s="23"/>
+      <c r="S88" s="23"/>
+      <c r="T88" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19" t="s">
+      <c r="U88" s="23"/>
+      <c r="V88" s="23"/>
+      <c r="W88" s="23"/>
+      <c r="X88" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="Y88" s="19"/>
-      <c r="Z88" s="19"/>
-      <c r="AA88" s="19"/>
-      <c r="AB88" s="19" t="s">
+      <c r="Y88" s="23"/>
+      <c r="Z88" s="23"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AC88" s="19"/>
-      <c r="AD88" s="19"/>
-      <c r="AE88" s="19"/>
-      <c r="AF88" s="19" t="s">
+      <c r="AC88" s="23"/>
+      <c r="AD88" s="23"/>
+      <c r="AE88" s="23"/>
+      <c r="AF88" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AG88" s="19"/>
-      <c r="AH88" s="19"/>
-      <c r="AI88" s="19"/>
-    </row>
-    <row r="89" spans="2:37">
-      <c r="C89" s="19"/>
-      <c r="D89" s="21" t="s">
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="23"/>
+      <c r="AI88" s="23"/>
+    </row>
+    <row r="89" spans="2:36">
+      <c r="C89" s="23"/>
+      <c r="D89" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="E89" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F89" s="21" t="s">
+      <c r="F89" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="G89" s="21" t="s">
+      <c r="G89" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="H89" s="21" t="s">
+      <c r="H89" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="I89" s="21" t="s">
+      <c r="I89" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J89" s="21" t="s">
+      <c r="J89" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="K89" s="21" t="s">
+      <c r="K89" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="L89" s="21" t="s">
+      <c r="L89" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="M89" s="21" t="s">
+      <c r="M89" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="N89" s="21" t="s">
+      <c r="N89" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="O89" s="21" t="s">
+      <c r="O89" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="P89" s="21" t="s">
+      <c r="P89" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="Q89" s="21" t="s">
+      <c r="Q89" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="R89" s="21" t="s">
+      <c r="R89" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S89" s="21" t="s">
+      <c r="S89" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="T89" s="21" t="s">
+      <c r="T89" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="U89" s="21" t="s">
+      <c r="U89" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="V89" s="21" t="s">
+      <c r="V89" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="W89" s="21" t="s">
+      <c r="W89" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="X89" s="21" t="s">
+      <c r="X89" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="Y89" s="21" t="s">
+      <c r="Y89" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="Z89" s="21" t="s">
+      <c r="Z89" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="AA89" s="21" t="s">
+      <c r="AA89" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="AB89" s="21" t="s">
+      <c r="AB89" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AC89" s="21" t="s">
+      <c r="AC89" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AD89" s="21" t="s">
+      <c r="AD89" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="AE89" s="21" t="s">
+      <c r="AE89" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="AF89" s="21" t="s">
+      <c r="AF89" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AG89" s="21" t="s">
+      <c r="AG89" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AH89" s="21" t="s">
+      <c r="AH89" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="AI89" s="21" t="s">
+      <c r="AI89" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="2:37">
-      <c r="C90" s="20" t="s">
+    <row r="90" spans="2:36">
+      <c r="C90" s="15" t="s">
         <v>152</v>
       </c>
       <c r="D90" s="7" t="s">
@@ -11130,13 +11227,12 @@
       <c r="AI90" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AJ90" s="26" t="s">
+      <c r="AJ90" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="AK90" s="12"/>
-    </row>
-    <row r="91" spans="2:37">
-      <c r="C91" s="20" t="s">
+    </row>
+    <row r="91" spans="2:36">
+      <c r="C91" s="15" t="s">
         <v>160</v>
       </c>
       <c r="D91" s="7" t="s">
@@ -11235,13 +11331,12 @@
       <c r="AI91" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AJ91" s="26" t="s">
+      <c r="AJ91" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="AK91" s="12"/>
-    </row>
-    <row r="92" spans="2:37">
-      <c r="C92" s="20" t="s">
+    </row>
+    <row r="92" spans="2:36">
+      <c r="C92" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D92" s="7" t="s">
@@ -11341,8 +11436,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="2:37">
-      <c r="C93" s="20" t="s">
+    <row r="93" spans="2:36">
+      <c r="C93" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D93" s="7" t="s">
@@ -11442,8 +11537,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="2:37">
-      <c r="C94" s="20" t="s">
+    <row r="94" spans="2:36">
+      <c r="C94" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -11543,8 +11638,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="2:37">
-      <c r="C95" s="20" t="s">
+    <row r="95" spans="2:36">
+      <c r="C95" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D95" s="7" t="s">
@@ -11644,8 +11739,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="2:37">
-      <c r="C96" s="20" t="s">
+    <row r="96" spans="2:36">
+      <c r="C96" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="7" t="s">
@@ -11746,7 +11841,7 @@
       </c>
     </row>
     <row r="97" spans="1:35">
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="7" t="s">
@@ -11847,7 +11942,7 @@
       </c>
     </row>
     <row r="98" spans="1:35">
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D98" s="7" t="s">
@@ -11948,7 +12043,7 @@
       </c>
     </row>
     <row r="99" spans="1:35">
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="7" t="s">
@@ -12049,7 +12144,7 @@
       </c>
     </row>
     <row r="100" spans="1:35">
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -12150,40 +12245,40 @@
       </c>
     </row>
     <row r="102" spans="1:35">
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:35">
-      <c r="D103" s="13" t="s">
+      <c r="D103" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:35">
-      <c r="D104" s="13" t="s">
+      <c r="D104" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:35">
-      <c r="D105" s="13" t="s">
+      <c r="D105" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:35">
-      <c r="D106" s="13" t="s">
+      <c r="D106" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:35">
-      <c r="D107" s="13" t="s">
+      <c r="D107" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:35">
-      <c r="D108" s="13" t="s">
+      <c r="D108" t="s">
         <v>194</v>
       </c>
     </row>
@@ -12199,158 +12294,157 @@
       </c>
     </row>
     <row r="112" spans="1:35">
-      <c r="C112" s="19"/>
-      <c r="D112" s="19" t="s">
+      <c r="C112" s="23"/>
+      <c r="D112" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19" t="s">
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19" t="s">
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
-      <c r="O112" s="19"/>
-      <c r="P112" s="19" t="s">
+      <c r="M112" s="23"/>
+      <c r="N112" s="23"/>
+      <c r="O112" s="23"/>
+      <c r="P112" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="Q112" s="19"/>
-      <c r="R112" s="19"/>
-      <c r="S112" s="19"/>
-      <c r="T112" s="19" t="s">
+      <c r="Q112" s="23"/>
+      <c r="R112" s="23"/>
+      <c r="S112" s="23"/>
+      <c r="T112" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="U112" s="19"/>
-      <c r="V112" s="19"/>
-      <c r="W112" s="19"/>
-      <c r="X112" s="19" t="s">
+      <c r="U112" s="23"/>
+      <c r="V112" s="23"/>
+      <c r="W112" s="23"/>
+      <c r="X112" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="Y112" s="19"/>
-      <c r="Z112" s="19"/>
-      <c r="AA112" s="19"/>
-      <c r="AB112" s="19" t="s">
+      <c r="Y112" s="23"/>
+      <c r="Z112" s="23"/>
+      <c r="AA112" s="23"/>
+      <c r="AB112" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AC112" s="19"/>
-      <c r="AD112" s="19"/>
-      <c r="AE112" s="19"/>
-      <c r="AF112" s="19" t="s">
+      <c r="AC112" s="23"/>
+      <c r="AD112" s="23"/>
+      <c r="AE112" s="23"/>
+      <c r="AF112" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AG112" s="19"/>
-      <c r="AH112" s="19"/>
-      <c r="AI112" s="19"/>
-    </row>
-    <row r="113" spans="2:37">
-      <c r="C113" s="19"/>
-      <c r="D113" s="21" t="s">
+      <c r="AG112" s="23"/>
+      <c r="AH112" s="23"/>
+      <c r="AI112" s="23"/>
+    </row>
+    <row r="113" spans="2:36">
+      <c r="C113" s="23"/>
+      <c r="D113" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="E113" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F113" s="21" t="s">
+      <c r="F113" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="G113" s="21" t="s">
+      <c r="G113" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="H113" s="21" t="s">
+      <c r="H113" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="I113" s="21" t="s">
+      <c r="I113" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J113" s="21" t="s">
+      <c r="J113" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="K113" s="21" t="s">
+      <c r="K113" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="L113" s="21" t="s">
+      <c r="L113" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="M113" s="21" t="s">
+      <c r="M113" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="N113" s="21" t="s">
+      <c r="N113" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="O113" s="21" t="s">
+      <c r="O113" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="P113" s="21" t="s">
+      <c r="P113" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="Q113" s="21" t="s">
+      <c r="Q113" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="R113" s="21" t="s">
+      <c r="R113" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S113" s="21" t="s">
+      <c r="S113" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="T113" s="21" t="s">
+      <c r="T113" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="U113" s="21" t="s">
+      <c r="U113" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="V113" s="21" t="s">
+      <c r="V113" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="W113" s="21" t="s">
+      <c r="W113" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="X113" s="21" t="s">
+      <c r="X113" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="Y113" s="21" t="s">
+      <c r="Y113" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="Z113" s="21" t="s">
+      <c r="Z113" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="AA113" s="21" t="s">
+      <c r="AA113" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="AB113" s="21" t="s">
+      <c r="AB113" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AC113" s="21" t="s">
+      <c r="AC113" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AD113" s="21" t="s">
+      <c r="AD113" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="AE113" s="21" t="s">
+      <c r="AE113" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="AF113" s="21" t="s">
+      <c r="AF113" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AG113" s="21" t="s">
+      <c r="AG113" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AH113" s="21" t="s">
+      <c r="AH113" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="AI113" s="21" t="s">
+      <c r="AI113" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="AK113" s="12"/>
-    </row>
-    <row r="114" spans="2:37">
-      <c r="C114" s="20" t="s">
+    </row>
+    <row r="114" spans="2:36">
+      <c r="C114" s="15" t="s">
         <v>168</v>
       </c>
       <c r="D114" s="7" t="s">
@@ -12449,13 +12543,12 @@
       <c r="AI114" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AJ114" s="26" t="s">
+      <c r="AJ114" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="AK114" s="12"/>
-    </row>
-    <row r="115" spans="2:37">
-      <c r="C115" s="20" t="s">
+    </row>
+    <row r="115" spans="2:36">
+      <c r="C115" s="15" t="s">
         <v>167</v>
       </c>
       <c r="D115" s="7" t="s">
@@ -12554,10 +12647,9 @@
       <c r="AI115" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AK115" s="12"/>
-    </row>
-    <row r="116" spans="2:37">
-      <c r="C116" s="20" t="s">
+    </row>
+    <row r="116" spans="2:36">
+      <c r="C116" s="15" t="s">
         <v>175</v>
       </c>
       <c r="D116" s="7" t="s">
@@ -12656,10 +12748,9 @@
       <c r="AI116" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AK116" s="12"/>
-    </row>
-    <row r="117" spans="2:37">
-      <c r="C117" s="20" t="s">
+    </row>
+    <row r="117" spans="2:36">
+      <c r="C117" s="15" t="s">
         <v>170</v>
       </c>
       <c r="D117" s="7" t="s">
@@ -12758,10 +12849,9 @@
       <c r="AI117" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AK117" s="12"/>
-    </row>
-    <row r="118" spans="2:37">
-      <c r="C118" s="20" t="s">
+    </row>
+    <row r="118" spans="2:36">
+      <c r="C118" s="15" t="s">
         <v>172</v>
       </c>
       <c r="D118" s="7" t="s">
@@ -12860,10 +12950,9 @@
       <c r="AI118" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AK118" s="12"/>
-    </row>
-    <row r="119" spans="2:37">
-      <c r="C119" s="20" t="s">
+    </row>
+    <row r="119" spans="2:36">
+      <c r="C119" s="15" t="s">
         <v>173</v>
       </c>
       <c r="D119" s="7" t="s">
@@ -12963,8 +13052,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="2:37">
-      <c r="C120" s="20" t="s">
+    <row r="120" spans="2:36">
+      <c r="C120" s="15" t="s">
         <v>171</v>
       </c>
       <c r="D120" s="7" t="s">
@@ -13064,8 +13153,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="2:37">
-      <c r="C121" s="20" t="s">
+    <row r="121" spans="2:36">
+      <c r="C121" s="15" t="s">
         <v>169</v>
       </c>
       <c r="D121" s="7" t="s">
@@ -13165,8 +13254,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="2:37">
-      <c r="C122" s="20" t="s">
+    <row r="122" spans="2:36">
+      <c r="C122" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D122" s="7" t="s">
@@ -13266,8 +13355,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="2:37">
-      <c r="C123" s="20" t="s">
+    <row r="123" spans="2:36">
+      <c r="C123" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D123" s="7" t="s">
@@ -13367,8 +13456,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="124" spans="2:37">
-      <c r="C124" s="20" t="s">
+    <row r="124" spans="2:36">
+      <c r="C124" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D124" s="7" t="s">
@@ -13468,23 +13557,23 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:37">
-      <c r="C125" s="25" t="s">
+    <row r="125" spans="2:36">
+      <c r="C125" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="2:37">
-      <c r="B127" s="22" t="s">
+    <row r="127" spans="2:36">
+      <c r="B127" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="2:37">
-      <c r="C128" s="23" t="s">
+    <row r="128" spans="2:36">
+      <c r="C128" s="18" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="129" spans="2:12">
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="18" t="s">
         <v>178</v>
       </c>
     </row>
@@ -13549,18 +13638,18 @@
       </c>
     </row>
     <row r="144" spans="2:12">
-      <c r="B144" s="24" t="s">
+      <c r="B144" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D144" s="27" t="s">
+      <c r="D144" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="27"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="21"/>
       <c r="L144" t="s">
         <v>234</v>
       </c>
@@ -13597,6 +13686,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="P112:S112"/>
     <mergeCell ref="T112:W112"/>
     <mergeCell ref="X112:AA112"/>
     <mergeCell ref="AB112:AE112"/>
@@ -13605,19 +13704,9 @@
     <mergeCell ref="X88:AA88"/>
     <mergeCell ref="AB88:AE88"/>
     <mergeCell ref="AF88:AI88"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="L112:O112"/>
-    <mergeCell ref="P112:S112"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="P88:S88"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AJ90:AJ91 D102:D108 AJ114 D90:AI100 D114:AI124">
+  <conditionalFormatting sqref="AJ90:AJ91 D90:AI100 D102:D108 AJ114 D114:AI124">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"△"</formula>
     </cfRule>

--- a/documents/gkill_develop_document.xlsx
+++ b/documents/gkill_develop_document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Git\gkill\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423BC844-EADF-4252-801B-9C21D479165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5C3A20-5FD7-45B1-A8DC-A6A1185BA198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="めも" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FB!$B$3:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">進捗!$D$3:$GC$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">進捗!$D$3:$FZ$500</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="354">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -3282,6 +3282,394 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早くクラス図を書きたいです。</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図、ユースケース記述、クラス図、要求、画面設計</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図はフェーズ2の最後っぽいですね</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求整理</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求書き出しからやります。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kftl, mkfl</t>
+  </si>
+  <si>
+    <t>kmemo</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>lantana</t>
+  </si>
+  <si>
+    <t>nlog</t>
+  </si>
+  <si>
+    <t>timeis</t>
+  </si>
+  <si>
+    <t>urlog</t>
+  </si>
+  <si>
+    <t>rykv</t>
+  </si>
+  <si>
+    <t>dnote</t>
+  </si>
+  <si>
+    <t>夢：人生の再現</t>
+    <rPh sb="0" eb="1">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落とし所：ライフログビューア</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ドコロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求：記録したライフログを時系列順でみたい</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジケイレツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　5W1Hがわかる物が欲しい</t>
+    <rPh sb="11" eb="12">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日記がみたい。誰と何をどれぐらいしていたのかが知りたい</t>
+    <rPh sb="0" eb="2">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホで楽に記録したい</t>
+    <rPh sb="4" eb="5">
+      <t>ラク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面からの記録だと指の動きが多くて大変なのでもっと楽にしてほしい</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ユビ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストメモを楽に残したい</t>
+    <rPh sb="7" eb="8">
+      <t>ラク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODOでタスク管理をしたい</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、複数端末での同時利用あり、ネットワーク接続不要なものがほしい</t>
+    <rPh sb="4" eb="6">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ドウジリヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気分値を記録したい</t>
+    <rPh sb="0" eb="2">
+      <t>キブン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お小遣い帳がほしい</t>
+    <rPh sb="1" eb="3">
+      <t>コヅカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出と収入を記録したい</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計もとりたい（月ごと、年ごとなど）</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつ何をどれぐらいしていたのかを記録したい</t>
+    <rPh sb="2" eb="3">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はてなブックマークみたいなのをやりたい</t>
+  </si>
+  <si>
+    <t>はてなブックマークみたいなのをやりたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧アプリケーションの要求起点</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求書き出し完了しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載完了</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画趣旨シートに記載</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図作成完了しました。</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（概要ユースケース図・詳細ユースケース図）</t>
+    <rPh sb="1" eb="3">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度コミットしてからユースケース記述に入ります。</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3478,7 +3866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3503,14 +3891,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3872,691 +4259,860 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:Z145"/>
+  <dimension ref="A1:Z174"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="9" style="24"/>
+    <col min="1" max="1" width="10.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="22">
+      <c r="A1" s="20">
         <v>45486</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="21">
         <v>0.47013888888888888</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="23">
+      <c r="B4" s="21">
         <v>0.47083333333333333</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="23">
+      <c r="B14" s="21">
         <v>0.47291666666666665</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="23">
+      <c r="B21" s="21">
         <v>0.47569444444444442</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="23">
+      <c r="B24" s="21">
         <v>0.4777777777777778</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>0.48541666666666666</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="4:4">
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="4:4">
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="4:4">
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="49" spans="3:4">
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="3:4">
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="51" spans="3:4">
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="3:4">
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="3:4">
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="3:4">
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="57" spans="3:4">
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="58" spans="3:4">
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="3:4">
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="65" spans="3:4">
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="22" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="66" spans="3:4">
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="3:4">
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="22" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="70" spans="3:4">
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="72" spans="3:4">
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="73" spans="3:4">
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="74" spans="3:4">
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="75" spans="3:4">
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="76" spans="3:4">
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="3:4">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" spans="3:4">
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="22" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="3:4">
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="81" spans="3:4">
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="82" spans="3:4">
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="22" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="3:4">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="85" spans="3:4">
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="88" spans="3:4">
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="89" spans="3:4">
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="90" spans="3:4">
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="91" spans="3:4">
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="93" spans="3:4">
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="94" spans="3:4">
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="22" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="95" spans="3:4">
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="96" spans="3:4">
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="22" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="97" spans="3:4">
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="98" spans="3:4">
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="99" spans="3:4">
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="100" spans="3:4">
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="101" spans="3:4">
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="22" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="103" spans="3:4">
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="104" spans="3:4">
-      <c r="D104" s="24" t="s">
+      <c r="D104" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="105" spans="3:4">
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="107" spans="3:4">
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="22" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="108" spans="3:4">
-      <c r="D108" s="24" t="s">
+      <c r="D108" s="22" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="109" spans="3:4">
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="111" spans="3:4">
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="D111" s="22" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="112" spans="3:4">
-      <c r="D112" s="24" t="s">
+      <c r="D112" s="22" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="113" spans="2:4">
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="22" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="114" spans="2:4">
-      <c r="D114" s="24" t="s">
+      <c r="D114" s="22" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="115" spans="2:4">
-      <c r="D115" s="24" t="s">
+      <c r="D115" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="23">
+      <c r="B117" s="21">
         <v>0.74583333333333335</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="22" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="118" spans="2:4">
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="22" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="119" spans="2:4">
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="120" spans="2:4">
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="122" spans="2:4">
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="22" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="C123" s="24" t="s">
+      <c r="C123" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="124" spans="2:4">
-      <c r="C124" s="24" t="s">
+      <c r="C124" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" s="23">
+      <c r="B126" s="21">
         <v>0.74652777777777779</v>
       </c>
-      <c r="C126" s="24" t="s">
+      <c r="C126" s="22" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="127" spans="2:4">
-      <c r="C127" s="24" t="s">
+      <c r="C127" s="22" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="22">
+      <c r="A129" s="20">
         <v>45487</v>
       </c>
-      <c r="B129" s="23">
+      <c r="B129" s="21">
         <v>0.22291666666666668</v>
       </c>
-      <c r="C129" s="24" t="s">
+      <c r="C129" s="22" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="C130" s="24" t="s">
+      <c r="C130" s="22" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="22" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="B133" s="23">
+      <c r="B133" s="21">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C133" s="22" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="B135" s="23">
+      <c r="B135" s="21">
         <v>0.43333333333333335</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C135" s="22" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="B137" s="23">
+      <c r="B137" s="21">
         <v>0.43819444444444444</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="C137" s="22" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="22" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="B140" s="23">
+      <c r="B140" s="21">
         <v>0.44166666666666665</v>
       </c>
-      <c r="C140" s="24" t="s">
+      <c r="C140" s="22" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="B142" s="23">
+      <c r="B142" s="21">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C142" s="24" t="s">
+      <c r="C142" s="22" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="C143" s="24" t="s">
+      <c r="C143" s="22" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="23">
+    <row r="145" spans="1:4">
+      <c r="B145" s="21">
         <v>0.48472222222222222</v>
       </c>
-      <c r="C145" s="24" t="s">
+      <c r="C145" s="22" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="20">
+        <v>45491</v>
+      </c>
+      <c r="B147" s="21">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="C148" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="C149" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="B151" s="21">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="C152" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="D153" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="D154" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="D155" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="C156" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="C157" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="D158" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="C159" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="C160" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="D161" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="C162" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="C163" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="D164" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="D165" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="C166" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="D167" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="C168" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" s="21">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" s="21">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="C173" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="C174" s="22" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4570,9 +5126,11 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:P37"/>
+  <dimension ref="A2:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -4580,7 +5138,7 @@
     <col min="4" max="4" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="39.75">
+    <row r="2" spans="1:10" ht="39.75">
       <c r="B2" s="4" t="s">
         <v>224</v>
       </c>
@@ -4593,281 +5151,408 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="18">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:10" s="2" customFormat="1">
+      <c r="A3"/>
       <c r="B3" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="C17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="B19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="B21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="C22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="C23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="B25" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="C26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="B28" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="2" customFormat="1" ht="18">
+      <c r="A30" s="15"/>
+      <c r="B30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="s">
+    <row r="31" spans="1:16">
+      <c r="A31" s="15"/>
+      <c r="B31" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="15"/>
-      <c r="C5" t="s">
+    <row r="32" spans="1:16">
+      <c r="A32" s="15"/>
+      <c r="C32" t="s">
         <v>200</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I32" t="s">
         <v>212</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P32" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="15"/>
-      <c r="C6" t="s">
+    <row r="33" spans="1:16">
+      <c r="A33" s="15"/>
+      <c r="C33" t="s">
         <v>201</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I33" t="s">
         <v>215</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P33" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="15"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="15"/>
-      <c r="B8" s="1" t="s">
+    <row r="34" spans="1:16">
+      <c r="A34" s="15"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="15"/>
+      <c r="B35" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="15"/>
-      <c r="C9" t="s">
+    <row r="36" spans="1:16">
+      <c r="A36" s="15"/>
+      <c r="C36" t="s">
         <v>204</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I36" t="s">
         <v>217</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P36" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="15"/>
-      <c r="C10" t="s">
+    <row r="37" spans="1:16">
+      <c r="A37" s="15"/>
+      <c r="C37" t="s">
         <v>205</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I37" t="s">
         <v>218</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P37" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="C11" t="s">
+    <row r="38" spans="1:16">
+      <c r="C38" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="1" t="s">
+    <row r="40" spans="1:16">
+      <c r="B40" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="C14" t="s">
+    <row r="41" spans="1:16">
+      <c r="C41" t="s">
         <v>208</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I41" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P41" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="C15" t="s">
+    <row r="42" spans="1:16">
+      <c r="C42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="C16" t="s">
+    <row r="43" spans="1:16">
+      <c r="C43" t="s">
         <v>210</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I43" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P43" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
+    <row r="44" spans="1:16">
+      <c r="C44" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="B19" t="s">
+    <row r="46" spans="1:16">
+      <c r="B46" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="C20" t="s">
+    <row r="47" spans="1:16">
+      <c r="C47" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1">
-      <c r="A22"/>
-      <c r="B22" s="2" t="s">
+    <row r="49" spans="1:4" s="2" customFormat="1">
+      <c r="A49"/>
+      <c r="B49" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="2" t="s">
+    <row r="50" spans="1:4">
+      <c r="B50" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="37.5">
-      <c r="B24" s="6">
+    <row r="51" spans="1:4" ht="37.5">
+      <c r="B51" s="6">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="93.75">
-      <c r="B25" s="6">
+    <row r="52" spans="1:4" ht="93.75">
+      <c r="B52" s="6">
         <v>2</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="75">
-      <c r="B26" s="6">
+    <row r="53" spans="1:4" ht="75">
+      <c r="B53" s="6">
         <v>3</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="6">
+    <row r="54" spans="1:4">
+      <c r="B54" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="6">
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" s="6">
         <v>5</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="6">
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="6">
         <v>6</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="6">
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="6">
         <v>7</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="6">
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="6">
         <v>8</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="6">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" s="6">
         <v>9</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="6">
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="6">
         <v>10</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="6">
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" s="6">
         <v>11</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="6">
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" s="6">
         <v>12</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="6">
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="6">
         <v>13</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="2:4" ht="37.5">
-      <c r="B37" s="6">
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" ht="37.5">
+      <c r="B64" s="6">
         <v>14</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D64" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4877,17 +5562,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:GC500"/>
+  <dimension ref="A1:FZ500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4904,19 +5589,19 @@
     <col min="12" max="13" width="15.875" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.375" customWidth="1"/>
-    <col min="16" max="32" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="42" max="63" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="64" max="72" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="73" max="102" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="103" max="124" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="125" max="133" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="134" max="154" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="155" max="163" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="164" max="185" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="38" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="60" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="70" max="99" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="100" max="121" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="122" max="130" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="131" max="151" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="152" max="160" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="161" max="182" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:185">
+    <row r="1" spans="1:182">
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
@@ -4928,7 +5613,7 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:185" s="9" customFormat="1" ht="39.75">
+    <row r="2" spans="1:182" s="9" customFormat="1" ht="39.75">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4952,7 +5637,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:185" s="9" customFormat="1">
+    <row r="3" spans="1:182" s="9" customFormat="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3"/>
@@ -4993,517 +5678,508 @@
         <v>45487</v>
       </c>
       <c r="P3" s="10">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="Q3" s="10">
-        <v>45489</v>
+        <v>45492</v>
       </c>
       <c r="R3" s="10">
-        <v>45490</v>
+        <v>45493</v>
       </c>
       <c r="S3" s="10">
-        <v>45491</v>
+        <v>45494</v>
       </c>
       <c r="T3" s="10">
-        <v>45492</v>
+        <v>45495</v>
       </c>
       <c r="U3" s="10">
-        <v>45493</v>
+        <v>45496</v>
       </c>
       <c r="V3" s="10">
-        <v>45494</v>
+        <v>45497</v>
       </c>
       <c r="W3" s="10">
-        <v>45495</v>
+        <v>45498</v>
       </c>
       <c r="X3" s="10">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="Y3" s="10">
-        <v>45497</v>
+        <v>45500</v>
       </c>
       <c r="Z3" s="10">
-        <v>45498</v>
+        <v>45501</v>
       </c>
       <c r="AA3" s="10">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="AB3" s="10">
-        <v>45500</v>
+        <v>45503</v>
       </c>
       <c r="AC3" s="10">
-        <v>45501</v>
+        <v>45504</v>
       </c>
       <c r="AD3" s="10">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="AE3" s="10">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="AF3" s="10">
-        <v>45504</v>
+        <v>45507</v>
       </c>
       <c r="AG3" s="10">
-        <v>45505</v>
+        <v>45508</v>
       </c>
       <c r="AH3" s="10">
-        <v>45506</v>
+        <v>45509</v>
       </c>
       <c r="AI3" s="10">
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="AJ3" s="10">
-        <v>45508</v>
+        <v>45511</v>
       </c>
       <c r="AK3" s="10">
-        <v>45509</v>
+        <v>45512</v>
       </c>
       <c r="AL3" s="10">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="AM3" s="10">
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="AN3" s="10">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="AO3" s="10">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="AP3" s="10">
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="AQ3" s="10">
-        <v>45515</v>
+        <v>45518</v>
       </c>
       <c r="AR3" s="10">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="AS3" s="10">
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="AT3" s="10">
-        <v>45518</v>
+        <v>45521</v>
       </c>
       <c r="AU3" s="10">
-        <v>45519</v>
+        <v>45522</v>
       </c>
       <c r="AV3" s="10">
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="AW3" s="10">
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="AX3" s="10">
-        <v>45522</v>
+        <v>45525</v>
       </c>
       <c r="AY3" s="10">
-        <v>45523</v>
+        <v>45526</v>
       </c>
       <c r="AZ3" s="10">
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="BA3" s="10">
-        <v>45525</v>
+        <v>45528</v>
       </c>
       <c r="BB3" s="10">
-        <v>45526</v>
+        <v>45529</v>
       </c>
       <c r="BC3" s="10">
-        <v>45527</v>
+        <v>45530</v>
       </c>
       <c r="BD3" s="10">
-        <v>45528</v>
+        <v>45531</v>
       </c>
       <c r="BE3" s="10">
-        <v>45529</v>
+        <v>45532</v>
       </c>
       <c r="BF3" s="10">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="BG3" s="10">
-        <v>45531</v>
+        <v>45534</v>
       </c>
       <c r="BH3" s="10">
-        <v>45532</v>
+        <v>45535</v>
       </c>
       <c r="BI3" s="10">
-        <v>45533</v>
+        <v>45536</v>
       </c>
       <c r="BJ3" s="10">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="BK3" s="10">
-        <v>45535</v>
+        <v>45538</v>
       </c>
       <c r="BL3" s="10">
-        <v>45536</v>
+        <v>45539</v>
       </c>
       <c r="BM3" s="10">
-        <v>45537</v>
+        <v>45540</v>
       </c>
       <c r="BN3" s="10">
-        <v>45538</v>
+        <v>45541</v>
       </c>
       <c r="BO3" s="10">
-        <v>45539</v>
+        <v>45542</v>
       </c>
       <c r="BP3" s="10">
-        <v>45540</v>
+        <v>45543</v>
       </c>
       <c r="BQ3" s="10">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="BR3" s="10">
-        <v>45542</v>
+        <v>45545</v>
       </c>
       <c r="BS3" s="10">
-        <v>45543</v>
+        <v>45546</v>
       </c>
       <c r="BT3" s="10">
-        <v>45544</v>
+        <v>45547</v>
       </c>
       <c r="BU3" s="10">
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="BV3" s="10">
-        <v>45546</v>
+        <v>45549</v>
       </c>
       <c r="BW3" s="10">
-        <v>45547</v>
+        <v>45550</v>
       </c>
       <c r="BX3" s="10">
-        <v>45548</v>
+        <v>45551</v>
       </c>
       <c r="BY3" s="10">
-        <v>45549</v>
+        <v>45552</v>
       </c>
       <c r="BZ3" s="10">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="CA3" s="10">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="CB3" s="10">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="CC3" s="10">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="CD3" s="10">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="CE3" s="10">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="CF3" s="10">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="CG3" s="10">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="CH3" s="10">
-        <v>45558</v>
+        <v>45561</v>
       </c>
       <c r="CI3" s="10">
-        <v>45559</v>
+        <v>45562</v>
       </c>
       <c r="CJ3" s="10">
-        <v>45560</v>
+        <v>45563</v>
       </c>
       <c r="CK3" s="10">
-        <v>45561</v>
+        <v>45564</v>
       </c>
       <c r="CL3" s="10">
-        <v>45562</v>
+        <v>45565</v>
       </c>
       <c r="CM3" s="10">
-        <v>45563</v>
+        <v>45566</v>
       </c>
       <c r="CN3" s="10">
-        <v>45564</v>
+        <v>45567</v>
       </c>
       <c r="CO3" s="10">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="CP3" s="10">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="CQ3" s="10">
-        <v>45567</v>
+        <v>45570</v>
       </c>
       <c r="CR3" s="10">
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="CS3" s="10">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="CT3" s="10">
-        <v>45570</v>
+        <v>45573</v>
       </c>
       <c r="CU3" s="10">
-        <v>45571</v>
+        <v>45574</v>
       </c>
       <c r="CV3" s="10">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="CW3" s="10">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="CX3" s="10">
-        <v>45574</v>
+        <v>45577</v>
       </c>
       <c r="CY3" s="10">
-        <v>45575</v>
+        <v>45578</v>
       </c>
       <c r="CZ3" s="10">
-        <v>45576</v>
+        <v>45579</v>
       </c>
       <c r="DA3" s="10">
-        <v>45577</v>
+        <v>45580</v>
       </c>
       <c r="DB3" s="10">
-        <v>45578</v>
+        <v>45581</v>
       </c>
       <c r="DC3" s="10">
-        <v>45579</v>
+        <v>45582</v>
       </c>
       <c r="DD3" s="10">
-        <v>45580</v>
+        <v>45583</v>
       </c>
       <c r="DE3" s="10">
-        <v>45581</v>
+        <v>45584</v>
       </c>
       <c r="DF3" s="10">
-        <v>45582</v>
+        <v>45585</v>
       </c>
       <c r="DG3" s="10">
-        <v>45583</v>
+        <v>45586</v>
       </c>
       <c r="DH3" s="10">
-        <v>45584</v>
+        <v>45587</v>
       </c>
       <c r="DI3" s="10">
-        <v>45585</v>
+        <v>45588</v>
       </c>
       <c r="DJ3" s="10">
-        <v>45586</v>
+        <v>45589</v>
       </c>
       <c r="DK3" s="10">
-        <v>45587</v>
+        <v>45590</v>
       </c>
       <c r="DL3" s="10">
-        <v>45588</v>
+        <v>45591</v>
       </c>
       <c r="DM3" s="10">
-        <v>45589</v>
+        <v>45592</v>
       </c>
       <c r="DN3" s="10">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="DO3" s="10">
-        <v>45591</v>
+        <v>45594</v>
       </c>
       <c r="DP3" s="10">
-        <v>45592</v>
+        <v>45595</v>
       </c>
       <c r="DQ3" s="10">
-        <v>45593</v>
+        <v>45596</v>
       </c>
       <c r="DR3" s="10">
-        <v>45594</v>
+        <v>45597</v>
       </c>
       <c r="DS3" s="10">
-        <v>45595</v>
+        <v>45598</v>
       </c>
       <c r="DT3" s="10">
-        <v>45596</v>
+        <v>45599</v>
       </c>
       <c r="DU3" s="10">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="DV3" s="10">
-        <v>45598</v>
+        <v>45601</v>
       </c>
       <c r="DW3" s="10">
-        <v>45599</v>
+        <v>45602</v>
       </c>
       <c r="DX3" s="10">
-        <v>45600</v>
+        <v>45603</v>
       </c>
       <c r="DY3" s="10">
-        <v>45601</v>
+        <v>45604</v>
       </c>
       <c r="DZ3" s="10">
-        <v>45602</v>
+        <v>45605</v>
       </c>
       <c r="EA3" s="10">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="EB3" s="10">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="EC3" s="10">
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="ED3" s="10">
-        <v>45606</v>
+        <v>45609</v>
       </c>
       <c r="EE3" s="10">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="EF3" s="10">
-        <v>45608</v>
+        <v>45611</v>
       </c>
       <c r="EG3" s="10">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="EH3" s="10">
-        <v>45610</v>
+        <v>45613</v>
       </c>
       <c r="EI3" s="10">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="EJ3" s="10">
-        <v>45612</v>
+        <v>45615</v>
       </c>
       <c r="EK3" s="10">
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="EL3" s="10">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="EM3" s="10">
-        <v>45615</v>
+        <v>45618</v>
       </c>
       <c r="EN3" s="10">
-        <v>45616</v>
+        <v>45619</v>
       </c>
       <c r="EO3" s="10">
-        <v>45617</v>
+        <v>45620</v>
       </c>
       <c r="EP3" s="10">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="EQ3" s="10">
-        <v>45619</v>
+        <v>45622</v>
       </c>
       <c r="ER3" s="10">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="ES3" s="10">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="ET3" s="10">
-        <v>45622</v>
+        <v>45625</v>
       </c>
       <c r="EU3" s="10">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="EV3" s="10">
-        <v>45624</v>
+        <v>45627</v>
       </c>
       <c r="EW3" s="10">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="EX3" s="10">
-        <v>45626</v>
+        <v>45629</v>
       </c>
       <c r="EY3" s="10">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="EZ3" s="10">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="FA3" s="10">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="FB3" s="10">
-        <v>45630</v>
+        <v>45633</v>
       </c>
       <c r="FC3" s="10">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="FD3" s="10">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="FE3" s="10">
-        <v>45633</v>
+        <v>45636</v>
       </c>
       <c r="FF3" s="10">
-        <v>45634</v>
+        <v>45637</v>
       </c>
       <c r="FG3" s="10">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="FH3" s="10">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="FI3" s="10">
-        <v>45637</v>
+        <v>45640</v>
       </c>
       <c r="FJ3" s="10">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="FK3" s="10">
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="FL3" s="10">
-        <v>45640</v>
+        <v>45643</v>
       </c>
       <c r="FM3" s="10">
-        <v>45641</v>
+        <v>45644</v>
       </c>
       <c r="FN3" s="10">
-        <v>45642</v>
+        <v>45645</v>
       </c>
       <c r="FO3" s="10">
-        <v>45643</v>
+        <v>45646</v>
       </c>
       <c r="FP3" s="10">
-        <v>45644</v>
+        <v>45647</v>
       </c>
       <c r="FQ3" s="10">
-        <v>45645</v>
+        <v>45648</v>
       </c>
       <c r="FR3" s="10">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="FS3" s="10">
-        <v>45647</v>
+        <v>45650</v>
       </c>
       <c r="FT3" s="10">
-        <v>45648</v>
+        <v>45651</v>
       </c>
       <c r="FU3" s="10">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="FV3" s="10">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="FW3" s="10">
-        <v>45651</v>
+        <v>45654</v>
       </c>
       <c r="FX3" s="10">
-        <v>45652</v>
+        <v>45655</v>
       </c>
       <c r="FY3" s="10">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="FZ3" s="10">
-        <v>45654</v>
-      </c>
-      <c r="GA3" s="10">
-        <v>45655</v>
-      </c>
-      <c r="GB3" s="10">
-        <v>45656</v>
-      </c>
-      <c r="GC3" s="10">
         <v>45657</v>
       </c>
     </row>
-    <row r="4" spans="1:185" ht="37.5" hidden="1">
+    <row r="4" spans="1:182" ht="37.5">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5544,7 +6220,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:185" ht="37.5" hidden="1">
+    <row r="5" spans="1:182" ht="37.5">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -5585,7 +6261,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:185" hidden="1">
+    <row r="6" spans="1:182">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -5626,7 +6302,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:185" ht="56.25" hidden="1">
+    <row r="7" spans="1:182" ht="56.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -5664,7 +6340,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:185" ht="93.75" hidden="1">
+    <row r="8" spans="1:182" ht="93.75">
       <c r="D8" s="6">
         <v>7</v>
       </c>
@@ -5693,7 +6369,7 @@
         <v>45487.443749999999</v>
       </c>
     </row>
-    <row r="9" spans="1:185" ht="37.5">
+    <row r="9" spans="1:182" ht="37.5">
       <c r="D9" s="6">
         <v>11</v>
       </c>
@@ -5713,7 +6389,7 @@
         <v>45486.540277777778</v>
       </c>
     </row>
-    <row r="10" spans="1:185" ht="75" hidden="1">
+    <row r="10" spans="1:182" ht="75">
       <c r="D10" s="6">
         <v>10</v>
       </c>
@@ -5748,7 +6424,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:185">
+    <row r="11" spans="1:182">
       <c r="D11" s="6">
         <v>9</v>
       </c>
@@ -5765,7 +6441,7 @@
         <v>45486.534722222219</v>
       </c>
     </row>
-    <row r="12" spans="1:185" ht="56.25">
+    <row r="12" spans="1:182" ht="56.25">
       <c r="D12" s="6">
         <v>12</v>
       </c>
@@ -5788,7 +6464,7 @@
         <v>45487.429861111108</v>
       </c>
     </row>
-    <row r="13" spans="1:185" ht="37.5">
+    <row r="13" spans="1:182" ht="37.5">
       <c r="D13" s="6">
         <v>13</v>
       </c>
@@ -5808,23 +6484,56 @@
         <v>6</v>
       </c>
       <c r="J13" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13" s="7">
         <v>45487.442361111112</v>
       </c>
-    </row>
-    <row r="14" spans="1:185">
+      <c r="L13" s="7">
+        <v>45491.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:182">
       <c r="D14" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:185">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>45491.613194444442</v>
+      </c>
+      <c r="L14" s="7">
+        <v>45491.625</v>
+      </c>
+      <c r="M14" s="7">
+        <v>45491.622916666667</v>
+      </c>
+      <c r="P14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:182">
       <c r="D15" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:185">
+    <row r="16" spans="1:182">
       <c r="D16" s="6">
         <v>16</v>
       </c>
@@ -8250,13 +8959,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D3:GC500" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="対応中"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D3:FZ500" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:H1048576">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
@@ -10850,7 +11553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B366C3B-CB5B-492E-B0CF-6CDEE8FB2C0A}">
   <dimension ref="A2:AJ159"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90:C100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -11291,58 +11996,58 @@
       </c>
     </row>
     <row r="88" spans="2:36">
-      <c r="C88" s="20"/>
-      <c r="D88" s="20" t="s">
+      <c r="C88" s="24"/>
+      <c r="D88" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20" t="s">
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20" t="s">
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="20" t="s">
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="20"/>
-      <c r="T88" s="20" t="s">
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="U88" s="20"/>
-      <c r="V88" s="20"/>
-      <c r="W88" s="20"/>
-      <c r="X88" s="20" t="s">
+      <c r="U88" s="24"/>
+      <c r="V88" s="24"/>
+      <c r="W88" s="24"/>
+      <c r="X88" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="Y88" s="20"/>
-      <c r="Z88" s="20"/>
-      <c r="AA88" s="20"/>
-      <c r="AB88" s="20" t="s">
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="24"/>
+      <c r="AA88" s="24"/>
+      <c r="AB88" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AC88" s="20"/>
-      <c r="AD88" s="20"/>
-      <c r="AE88" s="20"/>
-      <c r="AF88" s="20" t="s">
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="24"/>
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AG88" s="20"/>
-      <c r="AH88" s="20"/>
-      <c r="AI88" s="20"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="24"/>
+      <c r="AI88" s="24"/>
     </row>
     <row r="89" spans="2:36">
-      <c r="C89" s="20"/>
+      <c r="C89" s="24"/>
       <c r="D89" s="14" t="s">
         <v>146</v>
       </c>
@@ -12607,58 +13312,58 @@
       </c>
     </row>
     <row r="112" spans="1:35">
-      <c r="C112" s="20"/>
-      <c r="D112" s="20" t="s">
+      <c r="C112" s="24"/>
+      <c r="D112" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20" t="s">
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20" t="s">
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="M112" s="20"/>
-      <c r="N112" s="20"/>
-      <c r="O112" s="20"/>
-      <c r="P112" s="20" t="s">
+      <c r="M112" s="24"/>
+      <c r="N112" s="24"/>
+      <c r="O112" s="24"/>
+      <c r="P112" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="Q112" s="20"/>
-      <c r="R112" s="20"/>
-      <c r="S112" s="20"/>
-      <c r="T112" s="20" t="s">
+      <c r="Q112" s="24"/>
+      <c r="R112" s="24"/>
+      <c r="S112" s="24"/>
+      <c r="T112" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="U112" s="20"/>
-      <c r="V112" s="20"/>
-      <c r="W112" s="20"/>
-      <c r="X112" s="20" t="s">
+      <c r="U112" s="24"/>
+      <c r="V112" s="24"/>
+      <c r="W112" s="24"/>
+      <c r="X112" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="Y112" s="20"/>
-      <c r="Z112" s="20"/>
-      <c r="AA112" s="20"/>
-      <c r="AB112" s="20" t="s">
+      <c r="Y112" s="24"/>
+      <c r="Z112" s="24"/>
+      <c r="AA112" s="24"/>
+      <c r="AB112" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AC112" s="20"/>
-      <c r="AD112" s="20"/>
-      <c r="AE112" s="20"/>
-      <c r="AF112" s="20" t="s">
+      <c r="AC112" s="24"/>
+      <c r="AD112" s="24"/>
+      <c r="AE112" s="24"/>
+      <c r="AF112" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AG112" s="20"/>
-      <c r="AH112" s="20"/>
-      <c r="AI112" s="20"/>
+      <c r="AG112" s="24"/>
+      <c r="AH112" s="24"/>
+      <c r="AI112" s="24"/>
     </row>
     <row r="113" spans="2:36">
-      <c r="C113" s="20"/>
+      <c r="C113" s="24"/>
       <c r="D113" s="14" t="s">
         <v>146</v>
       </c>
@@ -13885,89 +14590,75 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="2:17">
+    <row r="129" spans="2:3">
       <c r="C129" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="2:17">
+    <row r="130" spans="2:3">
       <c r="C130" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="2:17">
+    <row r="131" spans="2:3">
       <c r="C131" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="2:17">
+    <row r="132" spans="2:3">
       <c r="C132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="2:17">
+    <row r="133" spans="2:3">
       <c r="C133" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="2:17">
+    <row r="134" spans="2:3">
       <c r="C134" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="2:17">
+    <row r="135" spans="2:3">
       <c r="C135" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="2:17">
+    <row r="137" spans="2:3">
       <c r="B137" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="2:17">
+    <row r="138" spans="2:3">
       <c r="C138" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="2:17">
+    <row r="139" spans="2:3">
       <c r="C139" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="2:17">
+    <row r="140" spans="2:3">
       <c r="C140" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="2:17">
+    <row r="141" spans="2:3">
       <c r="C141" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="2:17">
+    <row r="142" spans="2:3">
       <c r="C142" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="2:17">
+    <row r="144" spans="2:3">
       <c r="B144" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="21"/>
-      <c r="I144" s="21"/>
-      <c r="J144" s="21"/>
-      <c r="K144" s="21"/>
-      <c r="L144" s="21"/>
-      <c r="M144" s="21"/>
-      <c r="N144" s="21"/>
-      <c r="O144" s="21"/>
-      <c r="P144" s="21"/>
-      <c r="Q144" s="21"/>
     </row>
     <row r="145" spans="2:3">
       <c r="C145" t="s">
@@ -14036,6 +14727,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="P112:S112"/>
     <mergeCell ref="T112:W112"/>
     <mergeCell ref="X112:AA112"/>
     <mergeCell ref="AB112:AE112"/>
@@ -14044,16 +14745,6 @@
     <mergeCell ref="X88:AA88"/>
     <mergeCell ref="AB88:AE88"/>
     <mergeCell ref="AF88:AI88"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="L112:O112"/>
-    <mergeCell ref="P112:S112"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="P88:S88"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AJ90:AJ91 D90:AI100 D102:D108 AJ114 D114:AI124">
